--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/src/ken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/src/pathways/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="8280" windowWidth="29180" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="2900" yWindow="4060" windowWidth="29180" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Develop Your Vision</t>
   </si>
   <si>
-    <t>1R</t>
-  </si>
-  <si>
     <t>2R</t>
   </si>
   <si>
@@ -425,7 +422,13 @@
     <t>2R-2</t>
   </si>
   <si>
-    <t>2R-2.5</t>
+    <t>1R-1</t>
+  </si>
+  <si>
+    <t>1R-2</t>
+  </si>
+  <si>
+    <t>1R-3</t>
   </si>
 </sst>
 </file>
@@ -599,132 +602,14 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -739,242 +624,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1278,7 +933,7 @@
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,10 +956,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1342,7 +997,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1351,39 +1006,39 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1392,39 +1047,39 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -1433,39 +1088,39 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>65</v>
+        <v>133</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1474,39 +1129,39 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <v>200</v>
@@ -1515,10 +1170,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>36</v>
@@ -1527,13 +1182,13 @@
         <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>36</v>
@@ -1542,12 +1197,12 @@
         <v>36</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5">
         <v>300</v>
@@ -1556,39 +1211,39 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -1605,12 +1260,12 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -1625,12 +1280,12 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6">
         <v>999</v>
@@ -1639,39 +1294,39 @@
         <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
@@ -1686,12 +1341,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -1732,7 +1387,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="6">
         <v>20</v>
@@ -1773,7 +1428,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="6">
         <v>30</v>
@@ -1814,7 +1469,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6">
         <v>40</v>
@@ -1855,7 +1510,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="6">
         <v>50</v>
@@ -1896,7 +1551,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6">
         <v>60</v>
@@ -1911,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1937,7 +1592,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6">
         <v>70</v>
@@ -1967,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="3">
         <v>3</v>
@@ -1978,7 +1633,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="6">
         <v>80</v>
@@ -2019,7 +1674,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="6">
         <v>90</v>
@@ -2060,7 +1715,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6">
         <v>100</v>
@@ -2101,7 +1756,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6">
         <v>110</v>
@@ -2142,7 +1797,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="6">
         <v>120</v>
@@ -2169,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" s="3">
         <v>3</v>
@@ -2183,7 +1838,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6">
         <v>130</v>
@@ -2204,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J24" s="4">
         <v>3</v>
@@ -2216,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M24" s="8">
         <v>3</v>
@@ -2224,7 +1879,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="6">
         <v>10</v>
@@ -2265,7 +1920,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="6">
         <v>20</v>
@@ -2306,7 +1961,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="6">
         <v>30</v>
@@ -2333,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K27" s="3">
         <v>4</v>
@@ -2347,7 +2002,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="6">
         <v>40</v>
@@ -2388,7 +2043,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="6">
         <v>50</v>
@@ -2429,7 +2084,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="6">
         <v>70</v>
@@ -2470,7 +2125,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="6">
         <v>80</v>
@@ -2500,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="3">
         <v>4</v>
@@ -2511,7 +2166,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="6">
         <v>90</v>
@@ -2526,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
@@ -2552,7 +2207,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="6">
         <v>10</v>
@@ -2588,12 +2243,12 @@
         <v>5</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="6">
         <v>20</v>
@@ -2629,12 +2284,12 @@
         <v>5</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="6">
         <v>30</v>
@@ -2670,12 +2325,12 @@
         <v>5</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="6">
         <v>60</v>
@@ -2687,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="4">
         <v>5</v>
@@ -2699,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J36" s="4">
         <v>5</v>
@@ -2711,12 +2366,12 @@
         <v>5</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6">
         <v>40</v>
@@ -2746,18 +2401,18 @@
         <v>5</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="6">
         <v>50</v>
@@ -2784,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="3">
         <v>5</v>
@@ -2793,12 +2448,12 @@
         <v>5</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -2807,7 +2462,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2817,13 +2472,13 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -2832,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2846,7 +2501,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -2858,7 +2513,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2869,7 +2524,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -2878,7 +2533,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2892,7 +2547,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2901,30 +2556,30 @@
         <v>57</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2937,7 +2592,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>59</v>
@@ -2948,7 +2603,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2957,7 +2612,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>53</v>
@@ -2966,7 +2621,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2977,18 +2632,18 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>56</v>
@@ -2998,19 +2653,19 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>60</v>
@@ -3022,7 +2677,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3030,7 +2685,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -3039,7 +2694,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3050,7 +2705,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>51</v>
@@ -3060,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3072,14 +2727,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3092,7 +2747,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>61</v>
@@ -3106,13 +2761,13 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>58</v>
@@ -3123,7 +2778,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3132,7 +2787,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>55</v>
@@ -3142,7 +2797,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>36</v>
@@ -3154,14 +2809,14 @@
     </row>
   </sheetData>
   <sortState ref="A2:M56">
-    <sortCondition sortBy="cellColor" ref="M2:M56" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="M2:M56" dxfId="4"/>
     <sortCondition ref="M2:M56"/>
     <sortCondition ref="B2:B56"/>
     <sortCondition ref="C2:C56"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D2:M56">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="4060" windowWidth="29180" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="9300" yWindow="4160" windowWidth="21820" windowHeight="11700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="Paths" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -429,13 +430,49 @@
   </si>
   <si>
     <t>1R-3</t>
+  </si>
+  <si>
+    <t>Blurb</t>
+  </si>
+  <si>
+    <t>Pathname</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a strategic leader. The projects on this path focus on understanding leadership and communication styles, the effect of conflict on a group and the skills needed to defuse and direct conflict. These projects also emphasize the development of strategies to facilitate change in an organization or group, interpersonal communication and public speaking. This path culminates in a project focused on applying your leadership skills.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a positive communicator and leader. The projects on this path focus on understanding and building consensus, contributing to the development of others by coaching and establishing strong public speaking skills. Each project emphasizes the importance of effective interpersonal communication. This path culminates in a “High Performance Leadership” project of your design.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a public speaker and leader. The projects on this path focus on developing a strong connection with audience members when you present, speech writing and speech delivery. The projects contribute to building an understanding of the steps to manage a project, as well as creating innovative solutions. This path culminates in a “High Performance Leadership” project of your design.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as an effective communicator and leader. The projects on this path focus on learning how to manage time, as well as how to develop and implement a plan. Public speaking and leading a team are emphasized in all projects. This path culminates in the planning and execution of an event that will allow you to apply everything you learned.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a powerful and effective communicator. The projects focus on learning strategies for building connections with the people around you, understanding motivation and successfully leading small groups to accomplish tasks. This path culminates in a comprehensive team-building project that brings all of your skills together—including public speaking.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as an innovative communicator and leader. The projects on this path focus on how to negotiate a positive outcome together with building strong interpersonal communication and public speaking skills. Each project emphasizes developing leadership skills to use in complex situations, as well as creating innovative solutions to challenges. This path culminates in a “High Performance Leadership” project of your design.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as an accomplished public speaker. The projects on this path focus on learning how an audience responds to you and improving your connection with audience members. The projects contribute to developing an understanding of effective public speaking technique, including speech writing and speech delivery. This path culminates in an extended speech that will allow you to apply what you learned.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a leader in communication. The projects on this path focus on understanding diversity, building personal and/or professional connections with a variety of people and developing a public relations strategy. Communicating well interpersonally and as a public speaker is emphasized in each project. The path culminates in a project to apply your skills as a leader in a volunteer organization.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a collaborative leader. The projects on this path focus on active listening, motivating others and collaborating with a team. Each project contributes to building interpersonal communication and public speaking skills. This path culminates in a project focused on applying your leadership skills.</t>
+  </si>
+  <si>
+    <t>This path helps you build your skills as a strategic communicator and leader. The projects on this path focus on developing your skills for sharing information with a group, planning communications and creating innovative solutions. Speech writing and speech delivery are emphasized in each project. This path culminates in the development and launch of a long-term personal or professional vision.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,6 +509,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +548,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -543,8 +586,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -562,8 +635,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -582,6 +667,21 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -600,39 +700,24 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -929,11 +1014,11 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:M4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,18 +2894,127 @@
     </row>
   </sheetData>
   <sortState ref="A2:M56">
-    <sortCondition sortBy="cellColor" ref="M2:M56" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="M2:M56" dxfId="1"/>
     <sortCondition ref="M2:M56"/>
     <sortCondition ref="B2:B56"/>
     <sortCondition ref="C2:C56"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D2:M56">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.1640625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/src/pathways/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C282A-A121-934E-A12F-2E9EA10116A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="4160" windowWidth="21820" windowHeight="11700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1480" windowWidth="32780" windowHeight="11700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Paths" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -466,12 +467,45 @@
   </si>
   <si>
     <t>This path helps you build your skills as a strategic communicator and leader. The projects on this path focus on developing your skills for sharing information with a group, planning communications and creating innovative solutions. Speech writing and speech delivery are emphasized in each project. This path culminates in the development and launch of a long-term personal or professional vision.</t>
+  </si>
+  <si>
+    <t>Engaging Humor</t>
+  </si>
+  <si>
+    <t>This path is designed to help you build your skills as a humorous and engaging public speaker. The projects on this path focus on understanding your sense of humor and how that sense of humor translates to engaging audience members. The projects contribute to developing an understanding of how to effectively use humor in a speech, including challenging situations and impromptu speeches. This path culminates in an extended humorous speech that will allow you to apply what you learned.</t>
+  </si>
+  <si>
+    <t>Know Your Sense of Humor</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>Engage Your Audience With Humor</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>4-14</t>
+  </si>
+  <si>
+    <t>The Power of Humor in an Impromptu Speech</t>
+  </si>
+  <si>
+    <t>5-13</t>
+  </si>
+  <si>
+    <t>Deliver Your Message With Humor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -717,7 +751,17 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -736,11 +780,58 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1008,17 +1099,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:M1"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,19 +1118,19 @@
     <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1056,31 +1147,34 @@
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1120,8 +1214,11 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1161,8 +1258,11 @@
       <c r="M3" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1202,8 +1302,11 @@
       <c r="M4" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -1219,32 +1322,35 @@
       <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>65</v>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1260,32 +1366,35 @@
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1322,38 +1431,63 @@
       <c r="L7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1363,1262 +1497,1347 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>999</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M11" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="N11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="6">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="6">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="6">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>70</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="3">
-        <v>3</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>80</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>3</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="6">
         <v>90</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="6">
         <v>110</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>120</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B26" s="6">
         <v>130</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="4">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="K26" s="4">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M24" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="N26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B27" s="6">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3">
-        <v>4</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3">
-        <v>4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>4</v>
-      </c>
-      <c r="L25" s="3">
-        <v>4</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B28" s="6">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
-        <v>4</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="3">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4</v>
-      </c>
-      <c r="M27" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B30" s="6">
         <v>40</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="3">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="I28" s="3">
-        <v>4</v>
-      </c>
-      <c r="J28" s="3">
-        <v>4</v>
-      </c>
-      <c r="K28" s="3">
-        <v>4</v>
-      </c>
-      <c r="L28" s="3">
-        <v>4</v>
-      </c>
-      <c r="M28" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>4</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4</v>
+      </c>
+      <c r="M30" s="3">
+        <v>4</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B31" s="6">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="3">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>4</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3">
+        <v>4</v>
+      </c>
+      <c r="M31" s="3">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B32" s="6">
         <v>70</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="3">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3">
-        <v>4</v>
-      </c>
-      <c r="J30" s="3">
-        <v>4</v>
-      </c>
-      <c r="K30" s="3">
-        <v>4</v>
-      </c>
-      <c r="L30" s="3">
-        <v>4</v>
-      </c>
-      <c r="M30" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B33" s="6">
         <v>80</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="3">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3">
-        <v>4</v>
-      </c>
-      <c r="H31" s="3">
-        <v>4</v>
-      </c>
-      <c r="I31" s="3">
-        <v>4</v>
-      </c>
-      <c r="J31" s="3">
-        <v>4</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="3">
-        <v>4</v>
-      </c>
-      <c r="M31" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="M33" s="3">
+        <v>4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B34" s="6">
         <v>90</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="3">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3">
+        <v>4</v>
+      </c>
+      <c r="M34" s="3">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B35" s="6">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="3">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
-        <v>5</v>
-      </c>
-      <c r="M33" s="7" t="s">
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
+        <v>5</v>
+      </c>
+      <c r="N35" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B36" s="6">
         <v>20</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3">
-        <v>5</v>
-      </c>
-      <c r="I34" s="3">
-        <v>5</v>
-      </c>
-      <c r="J34" s="3">
-        <v>5</v>
-      </c>
-      <c r="K34" s="3">
-        <v>5</v>
-      </c>
-      <c r="L34" s="3">
-        <v>5</v>
-      </c>
-      <c r="M34" s="7" t="s">
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3">
+        <v>5</v>
+      </c>
+      <c r="M36" s="3">
+        <v>5</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B37" s="6">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
-        <v>5</v>
-      </c>
-      <c r="M35" s="7" t="s">
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="3">
+        <v>5</v>
+      </c>
+      <c r="L37" s="3">
+        <v>5</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5</v>
+      </c>
+      <c r="N37" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B38" s="6">
         <v>60</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="4">
-        <v>5</v>
-      </c>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>5</v>
-      </c>
-      <c r="L36" s="4">
-        <v>5</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="K38" s="4">
+        <v>5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5</v>
+      </c>
+      <c r="M38" s="4">
+        <v>5</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B39" s="6">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3">
-        <v>5</v>
-      </c>
-      <c r="H37" s="3">
-        <v>5</v>
-      </c>
-      <c r="I37" s="3">
-        <v>5</v>
-      </c>
-      <c r="J37" s="3">
-        <v>5</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="6">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3">
-        <v>5</v>
-      </c>
-      <c r="I38" s="3">
-        <v>5</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K38" s="3">
-        <v>5</v>
-      </c>
-      <c r="L38" s="3">
-        <v>5</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
+      <c r="K39" s="3">
+        <v>5</v>
+      </c>
       <c r="L39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="5">
+        <v>120</v>
+      </c>
+      <c r="B40" s="6">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2628,110 +2847,130 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2743,166 +2982,245 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M56">
-    <sortCondition sortBy="cellColor" ref="M2:M56" dxfId="1"/>
-    <sortCondition ref="M2:M56"/>
-    <sortCondition ref="B2:B56"/>
-    <sortCondition ref="C2:C56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N58">
+    <sortCondition sortBy="cellColor" ref="N2:N58" dxfId="6"/>
+    <sortCondition ref="N2:N58"/>
+    <sortCondition ref="B2:B58"/>
+    <sortCondition ref="C2:C58"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D2:M56">
+  <conditionalFormatting sqref="D2:E58 G2:N58">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F58">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",F60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2911,11 +3229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2940,7 +3258,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -2948,67 +3266,75 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="54" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:2" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>145</v>
       </c>
     </row>
